--- a/Booked_Hours/Booked_Hours_Taige_Liu.xlsx
+++ b/Booked_Hours/Booked_Hours_Taige_Liu.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taigeliu/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taigeliu/Documents/GitHub/prof-comp/Booked_Hours/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26C111AD-2F25-0948-8FED-F9B2C4E551ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195BAC98-BEB1-D643-A623-61EE3C639A8A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="2040" windowWidth="25440" windowHeight="15020" xr2:uid="{6ED926A6-6838-6C48-82E6-96D7768E8F43}"/>
+    <workbookView xWindow="160" yWindow="980" windowWidth="25440" windowHeight="15020" xr2:uid="{6ED926A6-6838-6C48-82E6-96D7768E8F43}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Week</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>Looked more into types of Risk Registers, created RR branch</t>
+  </si>
+  <si>
+    <t>Team Meeting</t>
+  </si>
+  <si>
+    <t>Briefly started on Swift syntax</t>
   </si>
 </sst>
 </file>
@@ -145,17 +151,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -474,7 +480,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -486,44 +492,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="7" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="7"/>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="11"/>
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" spans="1:8" ht="29" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -541,7 +547,7 @@
       <c r="E3" s="5">
         <v>0.60416666666666663</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="8" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="1">
@@ -567,7 +573,7 @@
       <c r="E4" s="5">
         <v>0.60416666666666663</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="1">
@@ -593,7 +599,7 @@
       <c r="E5" s="4">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G5">
@@ -619,7 +625,7 @@
       <c r="E6" s="4">
         <v>0.76041666666666663</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="9" t="s">
         <v>11</v>
       </c>
       <c r="G6">
@@ -629,109 +635,155 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F8" s="11"/>
+    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2">
+        <v>43335</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D7" s="2">
+        <v>43335</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.59375</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <v>1.25</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2">
+        <v>43336</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="D8" s="2">
+        <v>43336</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8">
+        <v>0.5</v>
+      </c>
+      <c r="H8">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F9" s="11"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F10" s="11"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F11" s="11"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F12" s="11"/>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D13" s="6"/>
-      <c r="F13" s="11"/>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D14" s="6"/>
-      <c r="F14" s="11"/>
+      <c r="F14" s="9"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F15" s="11"/>
+      <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F16" s="11"/>
+      <c r="F16" s="9"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="11"/>
+      <c r="F17" s="9"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="11"/>
+      <c r="F18" s="9"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="11"/>
+      <c r="F19" s="9"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="11"/>
+      <c r="F20" s="9"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="11"/>
+      <c r="F21" s="9"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="11"/>
+      <c r="F22" s="9"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="11"/>
+      <c r="F23" s="9"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="11"/>
+      <c r="F24" s="9"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="11"/>
+      <c r="F25" s="9"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="11"/>
+      <c r="F26" s="9"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="11"/>
+      <c r="F27" s="9"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="11"/>
+      <c r="F28" s="9"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="11"/>
+      <c r="F29" s="9"/>
     </row>
     <row r="30" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F30" s="11"/>
+      <c r="F30" s="9"/>
     </row>
     <row r="31" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F31" s="11"/>
+      <c r="F31" s="9"/>
     </row>
     <row r="32" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F32" s="11"/>
+      <c r="F32" s="9"/>
     </row>
     <row r="33" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F33" s="11"/>
+      <c r="F33" s="9"/>
     </row>
     <row r="34" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F34" s="11"/>
+      <c r="F34" s="9"/>
     </row>
     <row r="35" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F35" s="11"/>
+      <c r="F35" s="9"/>
     </row>
     <row r="36" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F36" s="11"/>
+      <c r="F36" s="9"/>
     </row>
     <row r="37" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F37" s="11"/>
+      <c r="F37" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="H1:H2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
